--- a/spark/experiments/linear-scaling-of-cpu-and-memory.xlsx
+++ b/spark/experiments/linear-scaling-of-cpu-and-memory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c130d1b636f27d/Documents/heterogenous-scaling-in-k8s/spark/experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddya\OneDrive\Documents\heterogenous-scaling-in-k8s\spark\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0DDBB70-F7BF-456E-B210-164FC637F663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{B0DDBB70-F7BF-456E-B210-164FC637F663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0EFC2FFD-BB21-4D07-8876-67CAE8A2FD45}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="24000" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>percentile95-warmup (s)</t>
   </si>
@@ -441,7 +441,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
@@ -507,7 +507,7 @@
       <c r="D2">
         <v>95.612542050999991</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="I2">
@@ -551,7 +551,7 @@
       <c r="D3">
         <v>99.357644473649998</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="I3">
@@ -589,7 +589,7 @@
       <c r="D4">
         <v>100.27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="I4">
@@ -627,16 +627,16 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
         <v>22</v>
       </c>
+      <c r="I5">
+        <v>0.76495771339999996</v>
+      </c>
       <c r="J5">
-        <v>0.76495771339999996</v>
-      </c>
-      <c r="K5">
         <v>66.333523181499999</v>
       </c>
       <c r="L5">
@@ -663,21 +663,21 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>34.494854532250002</v>
+      </c>
+      <c r="D6">
+        <v>66.626402599350001</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
       </c>
+      <c r="I6">
+        <v>34.070887963799997</v>
+      </c>
       <c r="J6">
-        <v>34.070887963799997</v>
-      </c>
-      <c r="K6">
         <v>66.333523181499999</v>
       </c>
       <c r="L6">
@@ -712,13 +712,13 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
+      <c r="I7">
+        <v>34.231227910200005</v>
+      </c>
       <c r="J7">
-        <v>34.231227910200005</v>
-      </c>
-      <c r="K7">
         <v>67.020357672750009</v>
       </c>
       <c r="L7">
@@ -753,13 +753,13 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>29</v>
       </c>
+      <c r="I8">
+        <v>33.049705725000003</v>
+      </c>
       <c r="J8">
-        <v>33.049705725000003</v>
-      </c>
-      <c r="K8">
         <v>65.467233987</v>
       </c>
       <c r="L8">
@@ -794,13 +794,13 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>30</v>
       </c>
+      <c r="I9">
+        <v>33.69589544275</v>
+      </c>
       <c r="J9">
-        <v>33.69589544275</v>
-      </c>
-      <c r="K9">
         <v>67.121034318250011</v>
       </c>
       <c r="L9">
@@ -835,13 +835,13 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>31</v>
       </c>
+      <c r="I10">
+        <v>33.385743239600004</v>
+      </c>
       <c r="J10">
-        <v>33.385743239600004</v>
-      </c>
-      <c r="K10">
         <v>65.219770727950007</v>
       </c>
       <c r="L10">

--- a/spark/experiments/linear-scaling-of-cpu-and-memory.xlsx
+++ b/spark/experiments/linear-scaling-of-cpu-and-memory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddya\OneDrive\Documents\heterogenous-scaling-in-k8s\spark\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{B0DDBB70-F7BF-456E-B210-164FC637F663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0EFC2FFD-BB21-4D07-8876-67CAE8A2FD45}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="24000" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2736" yWindow="2736" windowWidth="24000" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
   <si>
     <t>percentile95-warmup (s)</t>
   </si>
@@ -42,9 +41,6 @@
     <t>g2.1-1t-no cache</t>
   </si>
   <si>
-    <t>g2.2.-2t-with cache</t>
-  </si>
-  <si>
     <t>g2.1-2t-no cache</t>
   </si>
   <si>
@@ -93,12 +89,6 @@
     <t>if difference between sql queries</t>
   </si>
   <si>
-    <t xml:space="preserve">q1: select * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q2: select co,c6  * </t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -121,12 +111,54 @@
   </si>
   <si>
     <t>g2.3-3t-no-cache-bursty-QoS-lower-storage fraction</t>
+  </si>
+  <si>
+    <t>deviation is too high</t>
+  </si>
+  <si>
+    <t>g2.3-3t-with-cache</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>g2.3-3t-no-cache-lower-storage-fraction</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>g2.2-3t-no-cache-default-memory-fraction</t>
+  </si>
+  <si>
+    <t>g2.2-3t-no-cache-default-memory-fraction-i2</t>
+  </si>
+  <si>
+    <t>g2.2-2t-with cache</t>
+  </si>
+  <si>
+    <t>g2.2-3t-with cache</t>
+  </si>
+  <si>
+    <t>g2.2-3t-no cache</t>
+  </si>
+  <si>
+    <t>g2.1-3t-with-cache</t>
+  </si>
+  <si>
+    <t>g2.1-3t-no-cache</t>
+  </si>
+  <si>
+    <t>g2.1-3t-no-cache-default-memory-fraction-i2</t>
+  </si>
+  <si>
+    <t>g2.1-3t-no-cache-default-memory-fraction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,28 +469,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -467,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
@@ -476,28 +508,28 @@
         <v>0</v>
       </c>
       <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
       <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
       <c r="V1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -526,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P2">
         <v>0.9</v>
@@ -535,13 +567,13 @@
         <v>0.9</v>
       </c>
       <c r="V2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -552,7 +584,7 @@
         <v>99.357644473649998</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0.58078592439999999</v>
@@ -570,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="O3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P3">
         <v>0.9</v>
@@ -578,10 +610,16 @@
       <c r="Q3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>1.3435994724999998</v>
@@ -590,7 +628,7 @@
         <v>100.27</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>0.65959319780000014</v>
@@ -608,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4">
         <v>0.9</v>
@@ -617,24 +655,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5">
-        <v>0.76495771339999996</v>
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
       </c>
       <c r="J5">
         <v>66.333523181499999</v>
@@ -649,7 +675,7 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5">
         <v>0.9</v>
@@ -658,12 +684,12 @@
         <v>0.9</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>34.494854532250002</v>
@@ -671,15 +697,6 @@
       <c r="D6">
         <v>66.626402599350001</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6">
-        <v>34.070887963799997</v>
-      </c>
-      <c r="J6">
-        <v>66.333523181499999</v>
-      </c>
       <c r="L6">
         <v>2</v>
       </c>
@@ -690,48 +707,36 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>0.9</v>
+      </c>
+      <c r="Q6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
         <v>14</v>
       </c>
-      <c r="P6">
-        <v>0.9</v>
-      </c>
-      <c r="Q6">
-        <v>0.9</v>
-      </c>
-      <c r="R6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7">
-        <v>34.231227910200005</v>
-      </c>
-      <c r="J7">
-        <v>67.020357672750009</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>21</v>
-      </c>
       <c r="O7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7">
         <v>0.9</v>
@@ -739,37 +744,25 @@
       <c r="Q7">
         <v>0.9</v>
       </c>
-      <c r="R7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I8">
-        <v>33.049705725000003</v>
+        <v>3.5540393152999998</v>
       </c>
       <c r="J8">
-        <v>65.467233987</v>
+        <v>40.259180733899996</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
         <v>13</v>
@@ -780,81 +773,57 @@
       <c r="Q8">
         <v>0.9</v>
       </c>
-      <c r="R8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9">
+        <v>4.0182633932500007</v>
+      </c>
+      <c r="J9">
+        <v>41.192103705599997</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
         <v>30</v>
       </c>
-      <c r="I9">
-        <v>33.69589544275</v>
-      </c>
-      <c r="J9">
-        <v>67.121034318250011</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
       <c r="O9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="Q9">
         <v>0.9</v>
       </c>
-      <c r="R9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I10">
-        <v>33.385743239600004</v>
+        <v>3.7430988040499997</v>
       </c>
       <c r="J10">
-        <v>65.219770727950007</v>
+        <v>39.698062751249999</v>
       </c>
       <c r="L10">
         <v>2</v>
       </c>
-      <c r="M10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" t="s">
-        <v>19</v>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P10">
         <v>0.6</v>
@@ -862,12 +831,490 @@
       <c r="Q10">
         <v>0.9</v>
       </c>
-      <c r="R10" t="s">
-        <v>20</v>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>3.3928579459499999</v>
+      </c>
+      <c r="D11">
+        <v>27.025673171649998</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>2.0449928680499996</v>
+      </c>
+      <c r="J11">
+        <v>24.813232891999998</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>0.9</v>
+      </c>
+      <c r="Q11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>14</v>
+      </c>
+      <c r="O13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>0.9</v>
+      </c>
+      <c r="Q13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>34.231227910200005</v>
+      </c>
+      <c r="J14">
+        <v>67.020357672750009</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>0.9</v>
+      </c>
+      <c r="Q14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>5.2495375548499563</v>
+      </c>
+      <c r="J15">
+        <v>39.794080188750002</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>0.9</v>
+      </c>
+      <c r="Q15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>8.22599860449996</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>0.6</v>
+      </c>
+      <c r="Q16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>9.036605075899967</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17">
+        <v>0.6</v>
+      </c>
+      <c r="Q17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>17.546555330449998</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>30</v>
+      </c>
+      <c r="O18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18">
+        <v>0.9</v>
+      </c>
+      <c r="Q18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>33.049705725000003</v>
+      </c>
+      <c r="J20">
+        <v>65.467233987</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20">
+        <v>0.9</v>
+      </c>
+      <c r="Q20">
+        <v>0.9</v>
+      </c>
+      <c r="R20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>14</v>
+      </c>
+      <c r="O21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21">
+        <v>0.9</v>
+      </c>
+      <c r="Q21">
+        <v>0.9</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22">
+        <v>33.69589544275</v>
+      </c>
+      <c r="J22">
+        <v>67.121034318250011</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>0.9</v>
+      </c>
+      <c r="Q22">
+        <v>0.9</v>
+      </c>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>33.385743239600004</v>
+      </c>
+      <c r="J23">
+        <v>65.219770727950007</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23">
+        <v>0.6</v>
+      </c>
+      <c r="Q23">
+        <v>0.9</v>
+      </c>
+      <c r="R23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24">
+        <v>0.6</v>
+      </c>
+      <c r="Q24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25">
+        <v>13.884498975099991</v>
+      </c>
+      <c r="J25">
+        <v>39.663562660699995</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25">
+        <v>0.6</v>
+      </c>
+      <c r="Q25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>18.9761853919</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26">
+        <v>0.9</v>
+      </c>
+      <c r="Q26">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
+  <sortState ref="A2:C7">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spark/experiments/linear-scaling-of-cpu-and-memory.xlsx
+++ b/spark/experiments/linear-scaling-of-cpu-and-memory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t>percentile95-warmup (s)</t>
   </si>
@@ -153,14 +153,43 @@
   </si>
   <si>
     <t>g2.1-3t-no-cache-default-memory-fraction</t>
+  </si>
+  <si>
+    <t>percentile sql from parquet 0.95 (s)</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>30+</t>
+  </si>
+  <si>
+    <t>g2.x-4t-no-cache</t>
+  </si>
+  <si>
+    <t>g2.x-4t-b-no-cache</t>
+  </si>
+  <si>
+    <t>g2.x-5t</t>
+  </si>
+  <si>
+    <t>g2.x-b-5t-bursty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -188,8 +217,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +524,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -548,22 +579,22 @@
       <c r="J2">
         <v>97.149638194000005</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
+      <c r="P2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q2" s="1">
         <v>0.9</v>
       </c>
       <c r="V2" t="s">
@@ -592,22 +623,22 @@
       <c r="J3">
         <v>103.71409949250001</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P3">
-        <v>0.9</v>
-      </c>
-      <c r="Q3">
+      <c r="P3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q3" s="1">
         <v>0.9</v>
       </c>
       <c r="V3" t="s">
@@ -636,22 +667,22 @@
       <c r="J4">
         <v>104.61617613419999</v>
       </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
         <v>14</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P4">
-        <v>0.9</v>
-      </c>
-      <c r="Q4">
+      <c r="P4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q4" s="1">
         <v>0.9</v>
       </c>
     </row>
@@ -665,22 +696,22 @@
       <c r="J5">
         <v>66.333523181499999</v>
       </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2">
         <v>21</v>
       </c>
-      <c r="O5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5">
-        <v>0.9</v>
-      </c>
-      <c r="Q5">
+      <c r="O5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q5" s="2">
         <v>0.9</v>
       </c>
       <c r="R5" t="s">
@@ -755,22 +786,22 @@
       <c r="J8">
         <v>40.259180733899996</v>
       </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1">
         <v>30</v>
       </c>
-      <c r="O8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8">
-        <v>0.9</v>
-      </c>
-      <c r="Q8">
+      <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q8" s="1">
         <v>0.9</v>
       </c>
     </row>
@@ -947,22 +978,22 @@
       <c r="J15">
         <v>39.794080188750002</v>
       </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15">
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
         <v>30</v>
       </c>
-      <c r="O15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15">
-        <v>0.9</v>
-      </c>
-      <c r="Q15">
+      <c r="O15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q15" s="1">
         <v>0.9</v>
       </c>
     </row>
@@ -1311,6 +1342,121 @@
       </c>
       <c r="Q26">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27">
+        <v>0.9</v>
+      </c>
+      <c r="Q27">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>14</v>
+      </c>
+      <c r="O28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28">
+        <v>0.9</v>
+      </c>
+      <c r="Q28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>14</v>
+      </c>
+      <c r="O29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29">
+        <v>0.9</v>
+      </c>
+      <c r="Q29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>14</v>
+      </c>
+      <c r="O30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30">
+        <v>0.9</v>
+      </c>
+      <c r="Q30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31">
+        <v>0.9</v>
+      </c>
+      <c r="Q31">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/spark/experiments/linear-scaling-of-cpu-and-memory.xlsx
+++ b/spark/experiments/linear-scaling-of-cpu-and-memory.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -503,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,22 +1349,22 @@
       <c r="G27" t="s">
         <v>26</v>
       </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
-      <c r="N27">
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
         <v>30</v>
       </c>
-      <c r="O27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27">
-        <v>0.9</v>
-      </c>
-      <c r="Q27">
+      <c r="O27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q27" s="1">
         <v>0.9</v>
       </c>
     </row>
@@ -1371,45 +1372,46 @@
       <c r="G28" t="s">
         <v>46</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>4</v>
       </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28">
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
         <v>14</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P28">
-        <v>0.9</v>
-      </c>
-      <c r="Q28">
-        <v>0.9</v>
-      </c>
+      <c r="P28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
         <v>47</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>4</v>
       </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
-      <c r="N29">
+      <c r="M29" s="1">
+        <v>3</v>
+      </c>
+      <c r="N29" s="1">
         <v>14</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P29">
-        <v>0.9</v>
-      </c>
-      <c r="Q29">
+      <c r="P29" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q29" s="1">
         <v>0.9</v>
       </c>
     </row>
@@ -1417,52 +1419,55 @@
       <c r="G30" t="s">
         <v>48</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>5</v>
       </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
+      <c r="M30" s="1">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1">
         <v>14</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P30">
-        <v>0.9</v>
-      </c>
-      <c r="Q30">
-        <v>0.9</v>
-      </c>
+      <c r="P30" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
         <v>49</v>
       </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="L31" s="1">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O31" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31">
-        <v>0.9</v>
-      </c>
-      <c r="Q31">
+      <c r="O31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q31" s="1">
         <v>0.75</v>
       </c>
+      <c r="R31" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:C7">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>